--- a/public/import/weekly fakhri.xlsx
+++ b/public/import/weekly fakhri.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>year</t>
   </si>
@@ -252,33 +252,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>review blast email marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">artikel TC new </t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>buat report weekly feedback FU CRM kasih ke RSC</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>konten aksesoris cicilan</t>
-  </si>
-  <si>
-    <t>monitor new TL kandidat</t>
-  </si>
-  <si>
-    <t>62022-0-04</t>
-  </si>
-  <si>
-    <t>Konsep vidio brandhacking teaser Anniv 13th CS</t>
-  </si>
-  <si>
     <r>
       <t>1.</t>
     </r>
@@ -300,6 +273,15 @@
       </rPr>
       <t>Monitor daily brief all TL ke tim dibawahnya</t>
     </r>
+  </si>
+  <si>
+    <t>naik media partner konten collab</t>
+  </si>
+  <si>
+    <t>konsep VBH jingel Amazy</t>
+  </si>
+  <si>
+    <t>artikel complete selular</t>
   </si>
 </sst>
 </file>
@@ -345,20 +327,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,284 +651,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="5"/>
+    <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="67.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="14.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B2" s="7">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="2">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B3" s="7">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="2">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="7">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="2">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="7">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="2">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B6" s="7">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B6" s="2">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="7">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="2">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="7">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="2">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="7">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="2">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="7">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="2">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="7">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="A11" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="2">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="7">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="A12" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="2">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B13" s="7">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="A13" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="2">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>16</v>
+      <c r="E13" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B14" s="7">
-        <v>24</v>
+      <c r="A14" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="2">
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B15" s="7">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B16" s="7">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B17" s="7">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>24</v>
+      <c r="E14" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
